--- a/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8B36DA-D3AA-44B0-86B3-266717D5A85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCA1EC8-0096-4F92-8A2F-6DE72FE9B690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36090DC2-87E9-4FAF-8A13-00B800979AD0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F65FB582-38FA-4D02-A461-2C49D5ACBB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
-  <si>
-    <t>Población según la frecuencia de consumición de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="503">
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -79,1504 +79,1465 @@
     <t>0,95%</t>
   </si>
   <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2015 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de fruta fresca en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>52,03%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
   </si>
   <si>
     <t>55,73%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
   </si>
   <si>
     <t>53,07%</t>
@@ -1585,7 +1546,7 @@
     <t>51,83%</t>
   </si>
   <si>
-    <t>54,34%</t>
+    <t>54,3%</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE9B3F-176E-4D43-87DA-4C7F073FC941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000CFAFA-8218-44FA-8BBC-22A35DFF3AEF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2737,13 +2698,13 @@
         <v>10913</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2752,13 +2713,13 @@
         <v>5096</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2767,13 +2728,13 @@
         <v>16009</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2749,13 @@
         <v>27347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2803,13 +2764,13 @@
         <v>12298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2818,13 +2779,13 @@
         <v>39645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2800,13 @@
         <v>88261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -2854,13 +2815,13 @@
         <v>60268</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -2869,13 +2830,13 @@
         <v>148530</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2851,13 @@
         <v>155762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -2905,13 +2866,13 @@
         <v>129878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -2920,13 +2881,13 @@
         <v>285640</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2902,13 @@
         <v>269125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -2956,13 +2917,13 @@
         <v>268872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -2971,13 +2932,13 @@
         <v>537997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3006,13 @@
         <v>74106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -3060,13 +3021,13 @@
         <v>63049</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -3075,13 +3036,13 @@
         <v>137155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3057,13 @@
         <v>187038</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>110</v>
@@ -3111,13 +3072,13 @@
         <v>113213</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="M23" s="7">
         <v>294</v>
@@ -3126,13 +3087,13 @@
         <v>300251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3108,13 @@
         <v>516574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>440</v>
@@ -3162,13 +3123,13 @@
         <v>444465</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>949</v>
@@ -3177,13 +3138,13 @@
         <v>961039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3159,13 @@
         <v>944294</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>852</v>
@@ -3213,13 +3174,13 @@
         <v>870825</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>1767</v>
@@ -3228,13 +3189,13 @@
         <v>1815119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3210,13 @@
         <v>1551659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>1831</v>
@@ -3264,13 +3225,13 @@
         <v>1885611</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>3363</v>
@@ -3279,13 +3240,13 @@
         <v>3437270</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3302,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8685A37D-4950-45B4-B13A-440E522724E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58425050-5AD8-4728-9875-A36A3EDB2746}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3484,13 +3445,13 @@
         <v>16579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3499,13 +3460,13 @@
         <v>17294</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3514,13 +3475,13 @@
         <v>33873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3496,13 @@
         <v>20788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3550,13 +3511,13 @@
         <v>27879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -3565,13 +3526,13 @@
         <v>48667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3547,13 @@
         <v>87345</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>74</v>
@@ -3601,13 +3562,13 @@
         <v>78684</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>159</v>
@@ -3616,13 +3577,13 @@
         <v>166029</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3598,13 @@
         <v>173415</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -3652,13 +3613,13 @@
         <v>180617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -3667,13 +3628,13 @@
         <v>354032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3649,13 @@
         <v>673454</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>966</v>
@@ -3703,13 +3664,13 @@
         <v>1032225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>1588</v>
@@ -3718,13 +3679,13 @@
         <v>1705678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3753,13 @@
         <v>46947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3807,13 +3768,13 @@
         <v>43295</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3822,13 +3783,13 @@
         <v>90241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3804,13 @@
         <v>73980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -3858,13 +3819,13 @@
         <v>58701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -3873,13 +3834,13 @@
         <v>132681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3855,13 @@
         <v>239405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -3909,13 +3870,13 @@
         <v>166058</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>386</v>
@@ -3924,13 +3885,13 @@
         <v>405463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3906,13 @@
         <v>501491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>384</v>
@@ -3960,13 +3921,13 @@
         <v>415642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>856</v>
@@ -3975,13 +3936,13 @@
         <v>917133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3957,13 @@
         <v>1101175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>997</v>
@@ -4011,13 +3972,13 @@
         <v>1067867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>2035</v>
@@ -4026,13 +3987,13 @@
         <v>2169043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4061,13 @@
         <v>10323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4115,13 +4076,13 @@
         <v>6843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4130,13 +4091,13 @@
         <v>17166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4112,13 @@
         <v>13987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4166,13 +4127,13 @@
         <v>8883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4181,13 +4142,13 @@
         <v>22871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4163,13 @@
         <v>57188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4220,10 +4181,10 @@
         <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -4232,13 +4193,13 @@
         <v>84663</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4214,13 @@
         <v>134383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -4268,13 +4229,13 @@
         <v>105635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -4283,13 +4244,13 @@
         <v>240018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4265,13 @@
         <v>264259</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>279</v>
@@ -4319,13 +4280,13 @@
         <v>309795</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -4334,13 +4295,13 @@
         <v>574054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4369,13 @@
         <v>73849</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -4423,13 +4384,13 @@
         <v>67432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -4438,13 +4399,13 @@
         <v>141280</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4420,13 @@
         <v>108755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -4474,13 +4435,13 @@
         <v>95464</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>190</v>
@@ -4489,13 +4450,13 @@
         <v>204219</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4471,13 @@
         <v>383938</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>255</v>
@@ -4525,13 +4486,13 @@
         <v>272217</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>623</v>
@@ -4540,13 +4501,13 @@
         <v>656155</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4522,13 @@
         <v>809289</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>644</v>
@@ -4576,13 +4537,13 @@
         <v>701894</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>1401</v>
@@ -4591,13 +4552,13 @@
         <v>1511183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4573,13 @@
         <v>2038889</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>2242</v>
@@ -4627,13 +4588,13 @@
         <v>2409887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>4138</v>
@@ -4642,13 +4603,13 @@
         <v>4448775</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4665,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F9340-1913-41C4-92EE-86F2467A4D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA78FF13-EB6C-43DE-9DB4-4758ACEBDF22}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,7 +4701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4847,13 +4808,13 @@
         <v>15353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4862,13 +4823,13 @@
         <v>12583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4880,10 +4841,10 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4859,13 @@
         <v>18973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -4913,13 +4874,13 @@
         <v>24295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4928,13 +4889,13 @@
         <v>43268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4910,13 @@
         <v>72758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H6" s="7">
         <v>70</v>
@@ -4964,13 +4925,13 @@
         <v>76276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -4979,13 +4940,13 @@
         <v>149034</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4961,13 @@
         <v>214507</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>231</v>
@@ -5015,13 +4976,13 @@
         <v>250919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>447</v>
@@ -5030,13 +4991,13 @@
         <v>465426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5012,13 @@
         <v>428767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -5066,13 +5027,13 @@
         <v>629508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -5081,13 +5042,13 @@
         <v>1058274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5116,13 @@
         <v>61287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5170,13 +5131,13 @@
         <v>50883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>396</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -5188,10 +5149,10 @@
         <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>397</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5167,13 @@
         <v>89574</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -5221,13 +5182,13 @@
         <v>73164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>402</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>155</v>
@@ -5239,10 +5200,10 @@
         <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5218,13 @@
         <v>318755</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -5272,13 +5233,13 @@
         <v>254197</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>538</v>
@@ -5287,13 +5248,13 @@
         <v>572952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5269,13 @@
         <v>644687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>576</v>
@@ -5323,13 +5284,13 @@
         <v>593311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>1194</v>
@@ -5338,13 +5299,13 @@
         <v>1237998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5320,13 @@
         <v>959272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7">
         <v>962</v>
@@ -5374,13 +5335,13 @@
         <v>1011994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="M14" s="7">
         <v>1862</v>
@@ -5389,13 +5350,13 @@
         <v>1971266</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5424,13 @@
         <v>9871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5478,13 +5439,13 @@
         <v>8032</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5493,13 +5454,13 @@
         <v>17903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>435</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5475,13 @@
         <v>20894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5529,13 +5490,13 @@
         <v>17617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5544,13 +5505,13 @@
         <v>38511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5526,13 @@
         <v>65803</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5580,13 +5541,13 @@
         <v>69895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -5595,13 +5556,13 @@
         <v>135698</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5577,13 @@
         <v>143034</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -5631,13 +5592,13 @@
         <v>129908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -5646,13 +5607,13 @@
         <v>272941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5628,13 @@
         <v>307284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="H20" s="7">
         <v>304</v>
@@ -5682,13 +5643,13 @@
         <v>323688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="M20" s="7">
         <v>586</v>
@@ -5697,13 +5658,13 @@
         <v>630972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5732,13 @@
         <v>86511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5786,13 +5747,13 @@
         <v>71497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -5801,13 +5762,13 @@
         <v>158009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>69</v>
+        <v>470</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>471</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5783,13 @@
         <v>129441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>483</v>
+        <v>360</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>111</v>
@@ -5837,13 +5798,13 @@
         <v>115076</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>486</v>
+        <v>356</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>487</v>
+        <v>192</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -5852,13 +5813,13 @@
         <v>244517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>491</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5834,13 @@
         <v>457316</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="H24" s="7">
         <v>385</v>
@@ -5888,13 +5849,13 @@
         <v>400368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>808</v>
@@ -5903,13 +5864,13 @@
         <v>857684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5885,13 @@
         <v>1002228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>934</v>
@@ -5939,13 +5900,13 @@
         <v>974139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>1900</v>
@@ -5954,13 +5915,13 @@
         <v>1976366</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5936,13 @@
         <v>1695322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7">
         <v>1821</v>
@@ -5990,13 +5951,13 @@
         <v>1965191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>3440</v>
@@ -6005,13 +5966,13 @@
         <v>3660513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +6014,7 @@
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897089</v>
+        <v>6897088</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6067,7 +6028,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCA1EC8-0096-4F92-8A2F-6DE72FE9B690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{472B8B78-4CDD-4B91-9053-5A38B5BC6502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F65FB582-38FA-4D02-A461-2C49D5ACBB4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0083404-59B6-4D81-ABE5-D0742923BDC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="500">
   <si>
     <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -88,1426 +88,1417 @@
     <t>0,4%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>29,73%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>25,91%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>29,18%</t>
@@ -1516,37 +1507,37 @@
     <t>28,66%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>55,73%</t>
   </si>
   <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000CFAFA-8218-44FA-8BBC-22A35DFF3AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20831C41-2A46-44E9-BB3E-BBD72A468B27}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2698,7 +2689,7 @@
         <v>10913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>108</v>
@@ -2749,13 +2740,13 @@
         <v>27347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2764,13 +2755,13 @@
         <v>12298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2779,13 +2770,13 @@
         <v>39645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2791,13 @@
         <v>88261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -2815,13 +2806,13 @@
         <v>60268</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -2830,13 +2821,13 @@
         <v>148530</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2842,13 @@
         <v>155762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -2866,13 +2857,13 @@
         <v>129878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -2881,13 +2872,13 @@
         <v>285640</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2893,13 @@
         <v>269125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -2917,13 +2908,13 @@
         <v>268872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -2932,13 +2923,13 @@
         <v>537997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2997,13 @@
         <v>74106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -3021,13 +3012,13 @@
         <v>63049</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -3036,13 +3027,13 @@
         <v>137155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3048,13 @@
         <v>187038</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>110</v>
@@ -3072,13 +3063,13 @@
         <v>113213</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>294</v>
@@ -3087,13 +3078,13 @@
         <v>300251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3099,13 @@
         <v>516574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>440</v>
@@ -3123,13 +3114,13 @@
         <v>444465</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>949</v>
@@ -3138,13 +3129,13 @@
         <v>961039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3150,13 @@
         <v>944294</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>852</v>
@@ -3174,13 +3165,13 @@
         <v>870825</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>1767</v>
@@ -3189,13 +3180,13 @@
         <v>1815119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3201,13 @@
         <v>1551659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>1831</v>
@@ -3225,13 +3216,13 @@
         <v>1885611</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>3363</v>
@@ -3240,13 +3231,13 @@
         <v>3437270</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3293,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3321,7 +3312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58425050-5AD8-4728-9875-A36A3EDB2746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871DACB7-9BDA-4C15-99C8-A277678A6789}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3445,13 +3436,13 @@
         <v>16579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3460,13 +3451,13 @@
         <v>17294</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3475,13 +3466,13 @@
         <v>33873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3487,13 @@
         <v>20788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3511,13 +3502,13 @@
         <v>27879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -3526,13 +3517,13 @@
         <v>48667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3538,13 @@
         <v>87345</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>74</v>
@@ -3562,13 +3553,13 @@
         <v>78684</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>159</v>
@@ -3577,13 +3568,13 @@
         <v>166029</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3589,13 @@
         <v>173415</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -3613,13 +3604,13 @@
         <v>180617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -3628,13 +3619,13 @@
         <v>354032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3640,13 @@
         <v>673454</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>966</v>
@@ -3664,13 +3655,13 @@
         <v>1032225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>1588</v>
@@ -3679,13 +3670,13 @@
         <v>1705678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3744,13 @@
         <v>46947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3768,13 +3759,13 @@
         <v>43295</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3783,13 +3774,13 @@
         <v>90241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3795,13 @@
         <v>73980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -3819,13 +3810,13 @@
         <v>58701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -3834,13 +3825,13 @@
         <v>132681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3846,13 @@
         <v>239405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -3870,13 +3861,13 @@
         <v>166058</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>386</v>
@@ -3885,13 +3876,13 @@
         <v>405463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3897,13 @@
         <v>501491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>384</v>
@@ -3921,13 +3912,13 @@
         <v>415642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>856</v>
@@ -3936,13 +3927,13 @@
         <v>917133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3948,13 @@
         <v>1101175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>997</v>
@@ -3972,13 +3963,13 @@
         <v>1067867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>2035</v>
@@ -3987,13 +3978,13 @@
         <v>2169043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4052,13 @@
         <v>10323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4076,13 +4067,13 @@
         <v>6843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4091,13 +4082,13 @@
         <v>17166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4103,13 @@
         <v>13987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4127,13 +4118,13 @@
         <v>8883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4142,13 +4133,13 @@
         <v>22871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4154,13 @@
         <v>57188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4181,10 +4172,10 @@
         <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -4193,13 +4184,13 @@
         <v>84663</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4205,13 @@
         <v>134383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -4229,13 +4220,13 @@
         <v>105635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -4244,13 +4235,13 @@
         <v>240018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4256,13 @@
         <v>264259</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>279</v>
@@ -4280,13 +4271,13 @@
         <v>309795</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -4295,13 +4286,13 @@
         <v>574054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4360,13 @@
         <v>73849</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>314</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -4384,13 +4375,13 @@
         <v>67432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -4399,13 +4390,13 @@
         <v>141280</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4411,13 @@
         <v>108755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -4435,13 +4426,13 @@
         <v>95464</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>190</v>
@@ -4453,10 +4444,10 @@
         <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4462,13 @@
         <v>383938</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>255</v>
@@ -4486,13 +4477,13 @@
         <v>272217</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>623</v>
@@ -4501,13 +4492,13 @@
         <v>656155</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,7 +4513,7 @@
         <v>809289</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>336</v>
@@ -4636,7 +4627,7 @@
         <v>3288</v>
       </c>
       <c r="I27" s="7">
-        <v>3546893</v>
+        <v>3546894</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4665,7 +4656,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +4675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA78FF13-EB6C-43DE-9DB4-4758ACEBDF22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60ED2C1-5CFD-4636-8EAE-E2E544058E06}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4829,7 +4820,7 @@
         <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4841,10 +4832,10 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4850,13 @@
         <v>18973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -4874,13 +4865,13 @@
         <v>24295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4889,13 +4880,13 @@
         <v>43268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4901,13 @@
         <v>72758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="H6" s="7">
         <v>70</v>
@@ -4925,13 +4916,13 @@
         <v>76276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -4940,13 +4931,13 @@
         <v>149034</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>73</v>
+        <v>370</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4952,13 @@
         <v>214507</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>231</v>
@@ -4976,13 +4967,13 @@
         <v>250919</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>447</v>
@@ -4991,13 +4982,13 @@
         <v>465426</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5003,13 @@
         <v>428767</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -5027,13 +5018,13 @@
         <v>629508</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -5042,13 +5033,13 @@
         <v>1058274</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5107,13 @@
         <v>61287</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5131,13 +5122,13 @@
         <v>50883</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -5149,10 +5140,10 @@
         <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5158,13 @@
         <v>89574</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -5182,13 +5173,13 @@
         <v>73164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>155</v>
@@ -5200,10 +5191,10 @@
         <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5209,13 @@
         <v>318755</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -5233,13 +5224,13 @@
         <v>254197</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
         <v>538</v>
@@ -5248,13 +5239,13 @@
         <v>572952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5260,13 @@
         <v>644687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>576</v>
@@ -5284,13 +5275,13 @@
         <v>593311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M13" s="7">
         <v>1194</v>
@@ -5299,13 +5290,13 @@
         <v>1237998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5311,13 @@
         <v>959272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>962</v>
@@ -5335,13 +5326,13 @@
         <v>1011994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>1862</v>
@@ -5350,13 +5341,13 @@
         <v>1971266</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5415,13 @@
         <v>9871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>433</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5439,13 +5430,13 @@
         <v>8032</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5454,13 +5445,13 @@
         <v>17903</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5466,13 @@
         <v>20894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>437</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5490,13 +5481,13 @@
         <v>17617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5505,13 +5496,13 @@
         <v>38511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>438</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>439</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5517,13 @@
         <v>65803</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>443</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>444</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5541,13 +5532,13 @@
         <v>69895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -5556,13 +5547,13 @@
         <v>135698</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>449</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5568,13 @@
         <v>143034</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -5592,13 +5583,13 @@
         <v>129908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -5607,13 +5598,13 @@
         <v>272941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5619,13 @@
         <v>307284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H20" s="7">
         <v>304</v>
@@ -5643,13 +5634,13 @@
         <v>323688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M20" s="7">
         <v>586</v>
@@ -5658,13 +5649,13 @@
         <v>630972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>466</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5723,13 @@
         <v>86511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5747,13 +5738,13 @@
         <v>71497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -5762,13 +5753,13 @@
         <v>158009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>471</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5774,13 @@
         <v>129441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H23" s="7">
         <v>111</v>
@@ -5798,13 +5789,13 @@
         <v>115076</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>356</v>
+        <v>468</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>192</v>
+        <v>469</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -5813,13 +5804,13 @@
         <v>244517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>472</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5825,13 @@
         <v>457316</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H24" s="7">
         <v>385</v>
@@ -5849,13 +5840,13 @@
         <v>400368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M24" s="7">
         <v>808</v>
@@ -5864,13 +5855,13 @@
         <v>857684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5876,13 @@
         <v>1002228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H25" s="7">
         <v>934</v>
@@ -5900,13 +5891,13 @@
         <v>974139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M25" s="7">
         <v>1900</v>
@@ -5915,13 +5906,13 @@
         <v>1976366</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5927,13 @@
         <v>1695322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H26" s="7">
         <v>1821</v>
@@ -5951,13 +5942,13 @@
         <v>1965191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M26" s="7">
         <v>3440</v>
@@ -5966,13 +5957,13 @@
         <v>3660513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,7 +6005,7 @@
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897088</v>
+        <v>6897089</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6028,7 +6019,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472B8B78-4CDD-4B91-9053-5A38B5BC6502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DF297D-BCA4-499E-BE3E-24FC9E5DE95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0083404-59B6-4D81-ABE5-D0742923BDC3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC783270-189F-462D-92E4-CE83A3F9E5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
   <si>
     <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,1468 +76,1516 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>29,71%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20831C41-2A46-44E9-BB3E-BBD72A468B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBC654-3362-48CA-B370-86F33A5C3805}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2689,13 +2737,13 @@
         <v>10913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2704,13 +2752,13 @@
         <v>5096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2719,13 +2767,13 @@
         <v>16009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2788,13 @@
         <v>27347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2755,13 +2803,13 @@
         <v>12298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2770,13 +2818,13 @@
         <v>39645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2839,13 @@
         <v>88261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -2806,13 +2854,13 @@
         <v>60268</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -2821,13 +2869,13 @@
         <v>148530</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2890,13 @@
         <v>155762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -2857,13 +2905,13 @@
         <v>129878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -2872,13 +2920,13 @@
         <v>285640</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2941,13 @@
         <v>269125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -2908,13 +2956,13 @@
         <v>268872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -2923,13 +2971,13 @@
         <v>537997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +3045,13 @@
         <v>74106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -3012,13 +3060,13 @@
         <v>63049</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -3027,13 +3075,13 @@
         <v>137155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3096,13 @@
         <v>187038</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>110</v>
@@ -3063,13 +3111,13 @@
         <v>113213</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>294</v>
@@ -3078,13 +3126,13 @@
         <v>300251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3147,13 @@
         <v>516574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>440</v>
@@ -3114,13 +3162,13 @@
         <v>444465</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>949</v>
@@ -3129,13 +3177,13 @@
         <v>961039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3198,13 @@
         <v>944294</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>852</v>
@@ -3165,13 +3213,13 @@
         <v>870825</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>1767</v>
@@ -3180,13 +3228,13 @@
         <v>1815119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3249,13 @@
         <v>1551659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>1831</v>
@@ -3216,13 +3264,13 @@
         <v>1885611</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>3363</v>
@@ -3231,13 +3279,13 @@
         <v>3437270</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3341,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871DACB7-9BDA-4C15-99C8-A277678A6789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1144B7-4693-44D0-8566-96D2621E7FE9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3436,13 +3484,13 @@
         <v>16579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3451,10 +3499,10 @@
         <v>17294</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>200</v>
@@ -3466,13 +3514,13 @@
         <v>33873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3535,13 @@
         <v>20788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3502,13 +3550,13 @@
         <v>27879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -3517,13 +3565,13 @@
         <v>48667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3586,13 @@
         <v>87345</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>74</v>
@@ -3553,13 +3601,13 @@
         <v>78684</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>159</v>
@@ -3568,13 +3616,13 @@
         <v>166029</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3637,13 @@
         <v>173415</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -3604,13 +3652,13 @@
         <v>180617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -3619,13 +3667,13 @@
         <v>354032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3688,13 @@
         <v>673454</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>966</v>
@@ -3655,13 +3703,13 @@
         <v>1032225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>1588</v>
@@ -3670,13 +3718,13 @@
         <v>1705678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3792,13 @@
         <v>46947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3759,13 +3807,13 @@
         <v>43295</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3774,13 +3822,13 @@
         <v>90241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3843,13 @@
         <v>73980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -3810,13 +3858,13 @@
         <v>58701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -3825,13 +3873,13 @@
         <v>132681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3894,13 @@
         <v>239405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -3861,13 +3909,13 @@
         <v>166058</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>386</v>
@@ -3876,13 +3924,13 @@
         <v>405463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3945,13 @@
         <v>501491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>384</v>
@@ -3912,13 +3960,13 @@
         <v>415642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>856</v>
@@ -3927,13 +3975,13 @@
         <v>917133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3996,13 @@
         <v>1101175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>997</v>
@@ -3963,13 +4011,13 @@
         <v>1067867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>2035</v>
@@ -3978,13 +4026,13 @@
         <v>2169043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4100,13 @@
         <v>10323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4067,13 +4115,13 @@
         <v>6843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4082,13 +4130,13 @@
         <v>17166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4151,13 @@
         <v>13987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4118,13 +4166,13 @@
         <v>8883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4133,13 +4181,13 @@
         <v>22871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4202,13 @@
         <v>57188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4172,10 +4220,10 @@
         <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -4184,13 +4232,13 @@
         <v>84663</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4253,13 @@
         <v>134383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -4220,13 +4268,13 @@
         <v>105635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -4235,13 +4283,13 @@
         <v>240018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4304,13 @@
         <v>264259</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>279</v>
@@ -4271,13 +4319,13 @@
         <v>309795</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -4286,13 +4334,13 @@
         <v>574054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4408,13 @@
         <v>73849</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -4375,13 +4423,13 @@
         <v>67432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -4390,13 +4438,13 @@
         <v>141280</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4459,13 @@
         <v>108755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -4426,13 +4474,13 @@
         <v>95464</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>190</v>
@@ -4441,13 +4489,13 @@
         <v>204219</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4510,13 @@
         <v>383938</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>255</v>
@@ -4477,13 +4525,13 @@
         <v>272217</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>623</v>
@@ -4492,13 +4540,13 @@
         <v>656155</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4561,13 @@
         <v>809289</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>644</v>
@@ -4528,13 +4576,13 @@
         <v>701894</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>1401</v>
@@ -4543,13 +4591,13 @@
         <v>1511183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4612,13 @@
         <v>2038889</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>2242</v>
@@ -4579,13 +4627,13 @@
         <v>2409887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>4138</v>
@@ -4594,13 +4642,13 @@
         <v>4448775</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,7 +4675,7 @@
         <v>3288</v>
       </c>
       <c r="I27" s="7">
-        <v>3546894</v>
+        <v>3546893</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4656,7 +4704,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60ED2C1-5CFD-4636-8EAE-E2E544058E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A6AB70-86E3-4798-8FCF-D43737B9111B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4692,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4799,13 +4847,13 @@
         <v>15353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4814,13 +4862,13 @@
         <v>12583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4832,10 +4880,10 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4898,13 @@
         <v>18973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -4865,13 +4913,13 @@
         <v>24295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4880,13 +4928,13 @@
         <v>43268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4949,13 @@
         <v>72758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>70</v>
@@ -4916,13 +4964,13 @@
         <v>76276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -4931,13 +4979,13 @@
         <v>149034</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +5000,13 @@
         <v>214507</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7">
         <v>231</v>
@@ -4967,13 +5015,13 @@
         <v>250919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>447</v>
@@ -4982,13 +5030,13 @@
         <v>465426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5051,13 @@
         <v>428767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -5018,13 +5066,13 @@
         <v>629508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -5033,13 +5081,13 @@
         <v>1058274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5155,13 @@
         <v>61287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5122,13 +5170,13 @@
         <v>50883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -5140,10 +5188,10 @@
         <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5206,13 @@
         <v>89574</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -5173,13 +5221,13 @@
         <v>73164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>155</v>
@@ -5191,10 +5239,10 @@
         <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5257,13 @@
         <v>318755</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -5224,13 +5272,13 @@
         <v>254197</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>173</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>538</v>
@@ -5239,13 +5287,13 @@
         <v>572952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5308,13 @@
         <v>644687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>576</v>
@@ -5275,13 +5323,13 @@
         <v>593311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>1194</v>
@@ -5290,13 +5338,13 @@
         <v>1237998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5359,13 @@
         <v>959272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>962</v>
@@ -5326,13 +5374,13 @@
         <v>1011994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>1862</v>
@@ -5341,13 +5389,13 @@
         <v>1971266</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5463,13 @@
         <v>9871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5430,13 +5478,13 @@
         <v>8032</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5445,13 +5493,13 @@
         <v>17903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>433</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5514,13 @@
         <v>20894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5481,13 +5529,13 @@
         <v>17617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>450</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5496,13 +5544,13 @@
         <v>38511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>439</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5565,13 @@
         <v>65803</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>455</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>456</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5532,13 +5580,13 @@
         <v>69895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -5547,13 +5595,13 @@
         <v>135698</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5616,13 @@
         <v>143034</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -5583,13 +5631,13 @@
         <v>129908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -5598,13 +5646,13 @@
         <v>272941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>453</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5667,13 @@
         <v>307284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>304</v>
@@ -5634,13 +5682,13 @@
         <v>323688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>586</v>
@@ -5649,13 +5697,13 @@
         <v>630972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5771,13 @@
         <v>86511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>157</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5738,13 +5786,13 @@
         <v>71497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -5753,13 +5801,13 @@
         <v>158009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5822,13 @@
         <v>129441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>111</v>
@@ -5789,13 +5837,13 @@
         <v>115076</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -5804,13 +5852,13 @@
         <v>244517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5873,13 @@
         <v>457316</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>385</v>
@@ -5840,13 +5888,13 @@
         <v>400368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>808</v>
@@ -5855,13 +5903,13 @@
         <v>857684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5924,13 @@
         <v>1002228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>934</v>
@@ -5891,13 +5939,13 @@
         <v>974139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>1900</v>
@@ -5906,13 +5954,13 @@
         <v>1976366</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5975,13 @@
         <v>1695322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>1821</v>
@@ -5942,13 +5990,13 @@
         <v>1965191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>3440</v>
@@ -5957,13 +6005,13 @@
         <v>3660513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,7 +6067,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DF297D-BCA4-499E-BE3E-24FC9E5DE95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA27B5C8-888A-426C-95FA-6E52EAECED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC783270-189F-462D-92E4-CE83A3F9E5BF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{94461769-76C9-42C8-AE39-8EAAF6B00D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1997,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BBC654-3362-48CA-B370-86F33A5C3805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C37192-DEDA-440E-B062-9C4CD57B3F3D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3360,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1144B7-4693-44D0-8566-96D2621E7FE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D7529F-88C8-4B39-B832-DD226E487A20}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3993,7 +3993,7 @@
         <v>1038</v>
       </c>
       <c r="D14" s="7">
-        <v>1101175</v>
+        <v>1101176</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>272</v>
@@ -4044,7 +4044,7 @@
         <v>1855</v>
       </c>
       <c r="D15" s="7">
-        <v>1962998</v>
+        <v>1962999</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4723,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A6AB70-86E3-4798-8FCF-D43737B9111B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3804303B-8E18-4CFD-A14F-27DB99364988}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5643,7 +5643,7 @@
         <v>259</v>
       </c>
       <c r="N19" s="7">
-        <v>272941</v>
+        <v>272942</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>468</v>
@@ -5694,7 +5694,7 @@
         <v>586</v>
       </c>
       <c r="N20" s="7">
-        <v>630972</v>
+        <v>630973</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>476</v>
@@ -5745,7 +5745,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
